--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H2">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.0215681500001</v>
+        <v>0.150539</v>
       </c>
       <c r="N2">
-        <v>22.0215681500001</v>
+        <v>0.451617</v>
       </c>
       <c r="O2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607021</v>
       </c>
       <c r="P2">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607022</v>
       </c>
       <c r="Q2">
-        <v>5.415220102442242</v>
+        <v>0.045281227966</v>
       </c>
       <c r="R2">
-        <v>5.415220102442242</v>
+        <v>0.4075310516940001</v>
       </c>
       <c r="S2">
-        <v>0.001936506900946314</v>
+        <v>1.585092481192057E-05</v>
       </c>
       <c r="T2">
-        <v>0.001936506900946314</v>
+        <v>1.585092481192057E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H3">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8074563608038</v>
+        <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>13.8074563608038</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232425</v>
       </c>
       <c r="P3">
-        <v>0.3853707029238347</v>
+        <v>0.6059069138232426</v>
       </c>
       <c r="Q3">
-        <v>3.395326560729891</v>
+        <v>6.640850522384</v>
       </c>
       <c r="R3">
-        <v>3.395326560729891</v>
+        <v>59.767654701456</v>
       </c>
       <c r="S3">
-        <v>0.001214183946623779</v>
+        <v>0.002324663597828017</v>
       </c>
       <c r="T3">
-        <v>0.001214183946623779</v>
+        <v>0.002324663597828017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.18835167720775</v>
+        <v>0.300794</v>
       </c>
       <c r="H4">
-        <v>6.18835167720775</v>
+        <v>0.902382</v>
       </c>
       <c r="I4">
-        <v>0.07928899370152312</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J4">
-        <v>0.07928899370152312</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0215681500001</v>
+        <v>0.015885</v>
       </c>
       <c r="N4">
-        <v>22.0215681500001</v>
+        <v>0.047655</v>
       </c>
       <c r="O4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219957</v>
       </c>
       <c r="P4">
-        <v>0.6146292970761654</v>
+        <v>0.0004359519167219959</v>
       </c>
       <c r="Q4">
-        <v>136.2772081957979</v>
+        <v>0.00477811269</v>
       </c>
       <c r="R4">
-        <v>136.2772081957979</v>
+        <v>0.04300301421</v>
       </c>
       <c r="S4">
-        <v>0.04873333846464366</v>
+        <v>1.672602718480647E-06</v>
       </c>
       <c r="T4">
-        <v>0.04873333846464366</v>
+        <v>1.672602718480648E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.18835167720775</v>
+        <v>0.300794</v>
       </c>
       <c r="H5">
-        <v>6.18835167720775</v>
+        <v>0.902382</v>
       </c>
       <c r="I5">
-        <v>0.07928899370152312</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J5">
-        <v>0.07928899370152312</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.8074563608038</v>
+        <v>14.19334466666667</v>
       </c>
       <c r="N5">
-        <v>13.8074563608038</v>
+        <v>42.580034</v>
       </c>
       <c r="O5">
-        <v>0.3853707029238347</v>
+        <v>0.3895257042574284</v>
       </c>
       <c r="P5">
-        <v>0.3853707029238347</v>
+        <v>0.3895257042574284</v>
       </c>
       <c r="Q5">
-        <v>85.44539572835301</v>
+        <v>4.269272915665334</v>
       </c>
       <c r="R5">
-        <v>85.44539572835301</v>
+        <v>38.423456240988</v>
       </c>
       <c r="S5">
-        <v>0.03055565523687946</v>
+        <v>0.001494480760075509</v>
       </c>
       <c r="T5">
-        <v>0.03055565523687946</v>
+        <v>0.00149448076007551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.6137972243027</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H6">
-        <v>71.6137972243027</v>
+        <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.9175603154509068</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J6">
-        <v>0.9175603154509068</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>22.0215681500001</v>
+        <v>0.150539</v>
       </c>
       <c r="N6">
-        <v>22.0215681500001</v>
+        <v>0.451617</v>
       </c>
       <c r="O6">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607021</v>
       </c>
       <c r="P6">
-        <v>0.6146292970761654</v>
+        <v>0.004131430002607022</v>
       </c>
       <c r="Q6">
-        <v>1577.04811605527</v>
+        <v>0.9436776070213334</v>
       </c>
       <c r="R6">
-        <v>1577.04811605527</v>
+        <v>8.493098463192002</v>
       </c>
       <c r="S6">
-        <v>0.5639594517105755</v>
+        <v>0.0003303391596804709</v>
       </c>
       <c r="T6">
-        <v>0.5639594517105755</v>
+        <v>0.0003303391596804709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.268658666666667</v>
+      </c>
+      <c r="H7">
+        <v>18.805976</v>
+      </c>
+      <c r="I7">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="J7">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.077736</v>
+      </c>
+      <c r="N7">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P7">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q7">
+        <v>138.3977911167786</v>
+      </c>
+      <c r="R7">
+        <v>1245.580120051008</v>
+      </c>
+      <c r="S7">
+        <v>0.04844685269523033</v>
+      </c>
+      <c r="T7">
+        <v>0.04844685269523034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.268658666666667</v>
+      </c>
+      <c r="H8">
+        <v>18.805976</v>
+      </c>
+      <c r="I8">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="J8">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.015885</v>
+      </c>
+      <c r="N8">
+        <v>0.047655</v>
+      </c>
+      <c r="O8">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P8">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q8">
+        <v>0.09957764292</v>
+      </c>
+      <c r="R8">
+        <v>0.8961987862800002</v>
+      </c>
+      <c r="S8">
+        <v>3.485766181205056E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.485766181205057E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.268658666666667</v>
+      </c>
+      <c r="H9">
+        <v>18.805976</v>
+      </c>
+      <c r="I9">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="J9">
+        <v>0.07995758356598558</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N9">
+        <v>42.580034</v>
+      </c>
+      <c r="O9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P9">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q9">
+        <v>88.97323305368712</v>
+      </c>
+      <c r="R9">
+        <v>800.7590974831842</v>
+      </c>
+      <c r="S9">
+        <v>0.03114553404926271</v>
+      </c>
+      <c r="T9">
+        <v>0.03114553404926272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.136249</v>
+      </c>
+      <c r="I10">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J10">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.150539</v>
+      </c>
+      <c r="N10">
+        <v>0.451617</v>
+      </c>
+      <c r="O10">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P10">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q10">
+        <v>0.006836929403666667</v>
+      </c>
+      <c r="R10">
+        <v>0.06153236463300001</v>
+      </c>
+      <c r="S10">
+        <v>2.393302010345248E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.393302010345248E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="H7">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="I7">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="J7">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="N7">
-        <v>13.8074563608038</v>
-      </c>
-      <c r="O7">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="P7">
-        <v>0.3853707029238347</v>
-      </c>
-      <c r="Q7">
-        <v>988.8043800060118</v>
-      </c>
-      <c r="R7">
-        <v>988.8043800060118</v>
-      </c>
-      <c r="S7">
-        <v>0.3536008637403315</v>
-      </c>
-      <c r="T7">
-        <v>0.3536008637403315</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.136249</v>
+      </c>
+      <c r="I11">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J11">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.077736</v>
+      </c>
+      <c r="N11">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P11">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q11">
+        <v>1.002689817421333</v>
+      </c>
+      <c r="R11">
+        <v>9.024208356792</v>
+      </c>
+      <c r="S11">
+        <v>0.0003509966849299626</v>
+      </c>
+      <c r="T11">
+        <v>0.0003509966849299626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.136249</v>
+      </c>
+      <c r="I12">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J12">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015885</v>
+      </c>
+      <c r="N12">
+        <v>0.047655</v>
+      </c>
+      <c r="O12">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P12">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q12">
+        <v>0.0007214384550000001</v>
+      </c>
+      <c r="R12">
+        <v>0.006492946095000001</v>
+      </c>
+      <c r="S12">
+        <v>2.52543210957521E-07</v>
+      </c>
+      <c r="T12">
+        <v>2.52543210957521E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.136249</v>
+      </c>
+      <c r="I13">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J13">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N13">
+        <v>42.580034</v>
+      </c>
+      <c r="O13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P13">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q13">
+        <v>0.6446096724962224</v>
+      </c>
+      <c r="R13">
+        <v>5.801487052466001</v>
+      </c>
+      <c r="S13">
+        <v>0.0002256489037675043</v>
+      </c>
+      <c r="T13">
+        <v>0.0002256489037675044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H14">
+        <v>215.354797</v>
+      </c>
+      <c r="I14">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J14">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.150539</v>
+      </c>
+      <c r="N14">
+        <v>0.451617</v>
+      </c>
+      <c r="O14">
+        <v>0.004131430002607021</v>
+      </c>
+      <c r="P14">
+        <v>0.004131430002607022</v>
+      </c>
+      <c r="Q14">
+        <v>10.80643192852767</v>
+      </c>
+      <c r="R14">
+        <v>97.25788735674901</v>
+      </c>
+      <c r="S14">
+        <v>0.003782846616104284</v>
+      </c>
+      <c r="T14">
+        <v>0.003782846616104285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H15">
+        <v>215.354797</v>
+      </c>
+      <c r="I15">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J15">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.077736</v>
+      </c>
+      <c r="N15">
+        <v>66.23320799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6059069138232425</v>
+      </c>
+      <c r="P15">
+        <v>0.6059069138232426</v>
+      </c>
+      <c r="Q15">
+        <v>1584.848784833197</v>
+      </c>
+      <c r="R15">
+        <v>14263.63906349877</v>
+      </c>
+      <c r="S15">
+        <v>0.5547844008452542</v>
+      </c>
+      <c r="T15">
+        <v>0.5547844008452543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H16">
+        <v>215.354797</v>
+      </c>
+      <c r="I16">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J16">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015885</v>
+      </c>
+      <c r="N16">
+        <v>0.047655</v>
+      </c>
+      <c r="O16">
+        <v>0.0004359519167219957</v>
+      </c>
+      <c r="P16">
+        <v>0.0004359519167219959</v>
+      </c>
+      <c r="Q16">
+        <v>1.140303650115</v>
+      </c>
+      <c r="R16">
+        <v>10.262732851035</v>
+      </c>
+      <c r="S16">
+        <v>0.000399169108980507</v>
+      </c>
+      <c r="T16">
+        <v>0.0003991691089805071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H17">
+        <v>215.354797</v>
+      </c>
+      <c r="I17">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J17">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.19334466666667</v>
+      </c>
+      <c r="N17">
+        <v>42.580034</v>
+      </c>
+      <c r="O17">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="P17">
+        <v>0.3895257042574284</v>
+      </c>
+      <c r="Q17">
+        <v>1018.868286480344</v>
+      </c>
+      <c r="R17">
+        <v>9169.814578323099</v>
+      </c>
+      <c r="S17">
+        <v>0.3566600405443227</v>
+      </c>
+      <c r="T17">
+        <v>0.3566600405443227</v>
       </c>
     </row>
   </sheetData>
